--- a/biology/Botanique/Spirée_filipendule/Spirée_filipendule.xlsx
+++ b/biology/Botanique/Spirée_filipendule/Spirée_filipendule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spir%C3%A9e_filipendule</t>
+          <t>Spirée_filipendule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Filipendula vulgaris · Filipendule commune
 La Spirée filipendule ou Filipendule commune (Filipendula vulgaris) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est une plante vivace très proche de la reine-des-prés que l'on trouve dans les prés de la plus grande partie de l'Europe et dans le centre et le nord de l'Asie.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spir%C3%A9e_filipendule</t>
+          <t>Spirée_filipendule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Appareil végétatif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles de cette plante forment une rosette basilaire et sont également disposées de manière alterne sur la tige. Les feuilles sont stipulées et celles situées le plus bas sur l’axe sont pétiolées tandis que celles situées en haut de l’axe sont sessiles (voir Stipule, Pétiole et Sessilité (botanique)). Les feuilles sont  finement divisées, dentelées, d’un vert foncé et composées de plusieurs folioles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de cette plante forment une rosette basilaire et sont également disposées de manière alterne sur la tige. Les feuilles sont stipulées et celles situées le plus bas sur l’axe sont pétiolées tandis que celles situées en haut de l’axe sont sessiles (voir Stipule, Pétiole et Sessilité (botanique)). Les feuilles sont  finement divisées, dentelées, d’un vert foncé et composées de plusieurs folioles.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spir%C3%A9e_filipendule</t>
+          <t>Spirée_filipendule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleur
-Filipendula vulgaris est une plante formant une inflorescence composée d'un racème de racèmes. Chaque fleur est actinomorphe et formée d’une corolle circulaire de 10-15 mm de diamètre. Les pétales sont généralement de couleur crème et tendent  parfois vers un rouge léger. Le nombre de pétales insérés sur le calice est habituellement de 6 chacun mesurant en moyenne 6 à 8 mm de long. L’androcée est formé d’un grand nombre d’étamines, de même que le gynécée qui est formé de plusieurs carpelles. La pollinisation est entomogame ou autogame[2].
-La plante fleurit de juin à août[1].
+          <t>Fleur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filipendula vulgaris est une plante formant une inflorescence composée d'un racème de racèmes. Chaque fleur est actinomorphe et formée d’une corolle circulaire de 10-15 mm de diamètre. Les pétales sont généralement de couleur crème et tendent  parfois vers un rouge léger. Le nombre de pétales insérés sur le calice est habituellement de 6 chacun mesurant en moyenne 6 à 8 mm de long. L’androcée est formé d’un grand nombre d’étamines, de même que le gynécée qui est formé de plusieurs carpelles. La pollinisation est entomogame ou autogame.
+La plante fleurit de juin à août.
 			Inflorescence.
 			Fleurs de Filipendula vulgaris.
 			Fleurs de spirée filipendule, vers Kulna (Keila) en Estonie.
-Fruit
-Les fruits de la spirée filipendule sont des akènes plats, droits et velus de 3-4 mm de long et sont généralement regroupés à plusieurs[1]. La dissémination du fruit est épizoochore, c’est-à-dire que les fruits sont transportées sur le pelage ou plumage des animaux[2].
 </t>
         </is>
       </c>
@@ -564,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spir%C3%A9e_filipendule</t>
+          <t>Spirée_filipendule</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,13 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et répartition</t>
+          <t>Appareil reproducteur</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filipendula vulgaris est une espèce héliophile ou de demi-ombre se trouvant sur des sols argileux ou limoneux riches en bases, à pH alcalin à légèrement acide. Elle se développe sur des sols secs ou offrant des variations annuelles importantes d’humidité[3].
-Cette plante est originaire des plaines calcaire sèches d’Asie et d’Europe. Elle a ensuite été importée sur le continent américain où on la retrouve principalement sur la côte ouest des États-Unis et du Canada, généralement dans les prés et les champs mais aussi dans des milieux plus ombragés du type sous-bois[4],[5].
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de la spirée filipendule sont des akènes plats, droits et velus de 3-4 mm de long et sont généralement regroupés à plusieurs. La dissémination du fruit est épizoochore, c’est-à-dire que les fruits sont transportées sur le pelage ou plumage des animaux.
 </t>
         </is>
       </c>
@@ -596,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Spir%C3%A9e_filipendule</t>
+          <t>Spirée_filipendule</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,12 +633,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Filipendula vulgaris est facile à cultiver car elle est vivace robuste et peu exigeante. Elle apprécie une condition d’exposition mi-ombre ainsi qu’un sol riche, légèrement alcalin, humifère et d’humidité moyenne. Cependant, la Spirée filipendule tolère un sol sec et est même considérée comme l'espèce de Filipendula la plus résistante à la sécheresse. Si l’humidité est suffisante, le feuillage peut rester en bon état toute la durée de la croissance mais en cas de dépréciation des feuilles à la fin de l’été, il est conseillé de les couper en retour après la floraison[5].
+          <t>Écologie et répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filipendula vulgaris est une espèce héliophile ou de demi-ombre se trouvant sur des sols argileux ou limoneux riches en bases, à pH alcalin à légèrement acide. Elle se développe sur des sols secs ou offrant des variations annuelles importantes d’humidité.
+Cette plante est originaire des plaines calcaire sèches d’Asie et d’Europe. Elle a ensuite été importée sur le continent américain où on la retrouve principalement sur la côte ouest des États-Unis et du Canada, généralement dans les prés et les champs mais aussi dans des milieux plus ombragés du type sous-bois,.
 </t>
         </is>
       </c>
@@ -627,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Spir%C3%A9e_filipendule</t>
+          <t>Spirée_filipendule</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,12 +667,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Usage médical</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Spirée filipendule est utilisée à des fins thérapeutiques dans de nombreux pays tels que la Serbie, l’Ukraine, la Pologne et la Bulgarie. En effet, la poudre extraite de ses racines, contenant des flavonoïdes et de l’acide salicylique, est utilisée pour soigner des problèmes rénaux, des maux de gorge, des problèmes respiratoires et la congestion. La présence de tanin dans ses racines permet également d’apaiser des maux de ventre et diarrhée. Le thé fait à partir des feuilles contenant de l’acide salicylique est utilisé pour calmer les yeux endoloris et nettoyer les plaies. Ainsi cette plante possède des propriétés antipyrétiques, anti-inflammatoires, analgésiques et antirhumatismales[6].
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filipendula vulgaris est facile à cultiver car elle est vivace robuste et peu exigeante. Elle apprécie une condition d’exposition mi-ombre ainsi qu’un sol riche, légèrement alcalin, humifère et d’humidité moyenne. Cependant, la Spirée filipendule tolère un sol sec et est même considérée comme l'espèce de Filipendula la plus résistante à la sécheresse. Si l’humidité est suffisante, le feuillage peut rester en bon état toute la durée de la croissance mais en cas de dépréciation des feuilles à la fin de l’été, il est conseillé de les couper en retour après la floraison.
 </t>
         </is>
       </c>
@@ -658,7 +685,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Spir%C3%A9e_filipendule</t>
+          <t>Spirée_filipendule</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,15 +700,88 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Usage médical</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Spirée filipendule est utilisée à des fins thérapeutiques dans de nombreux pays tels que la Serbie, l’Ukraine, la Pologne et la Bulgarie. En effet, la poudre extraite de ses racines, contenant des flavonoïdes et de l’acide salicylique, est utilisée pour soigner des problèmes rénaux, des maux de gorge, des problèmes respiratoires et la congestion. La présence de tanin dans ses racines permet également d’apaiser des maux de ventre et diarrhée. Le thé fait à partir des feuilles contenant de l’acide salicylique est utilisé pour calmer les yeux endoloris et nettoyer les plaies. Ainsi cette plante possède des propriétés antipyrétiques, anti-inflammatoires, analgésiques et antirhumatismales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Spirée_filipendule</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spir%C3%A9e_filipendule</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Noms français
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : filipendule[7],[8], filipendule vulgaire[7],[9],[10],[8], Filipendule commune[9],[10],[8], Spirée filipendule[9],[10],[8], Filipendule à six pétales[9],[8], terrenoix[8].
-Synonymie
-Filipendula vulgaris a pour synonymes[7] :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Noms français</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : filipendule filipendule vulgaire Filipendule commune Spirée filipendule Filipendule à six pétales terrenoix.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Spirée_filipendule</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spir%C3%A9e_filipendule</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filipendula vulgaris a pour synonymes :
 Filipendula filipendula (L.) Voss
 Filipendula hexapetala Gilib.
 Filipendula hexapetala Gilib. ex Maxim.
